--- a/conf/Activity.xlsx
+++ b/conf/Activity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gopath\src\Tool-Library\conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3013B00E-B069-4B58-9ACD-FB09AD6E9481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4162BD7-0EC4-4AB7-ADB3-E01B21A06225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30120" yWindow="1320" windowWidth="27480" windowHeight="13365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>ActivityCenter</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>奖励ID</t>
-  </si>
-  <si>
-    <t>ActivityID</t>
   </si>
   <si>
     <t>Day</t>
@@ -326,6 +323,14 @@
       </rPr>
       <t>-27_00:00:00</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityID_list</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_list</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="3">
         <v>7</v>
@@ -989,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="3">
         <v>2</v>
@@ -1008,10 +1013,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1032,13 +1040,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1206,7 +1214,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/conf/Activity.xlsx
+++ b/conf/Activity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gopath\src\Tool-Library\conf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\github配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4162BD7-0EC4-4AB7-ADB3-E01B21A06225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3013B00E-B069-4B58-9ACD-FB09AD6E9481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="1320" windowWidth="27480" windowHeight="13365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>ActivityCenter</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>奖励ID</t>
+  </si>
+  <si>
+    <t>ActivityID</t>
   </si>
   <si>
     <t>Day</t>
@@ -323,14 +326,6 @@
       </rPr>
       <t>-27_00:00:00</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivityID_list</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_list</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +960,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" s="3">
         <v>7</v>
@@ -994,7 +989,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="3">
         <v>2</v>
@@ -1013,13 +1008,10 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1040,13 +1032,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1054,7 +1046,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1214,7 +1206,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>